--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1368066542523479</v>
+        <v>0.1081400015761023</v>
       </c>
       <c r="H2" t="n">
-        <v>4.098221038883574</v>
+        <v>-17.71466198968813</v>
       </c>
       <c r="I2" t="n">
-        <v>20.72787228175239</v>
+        <v>16.52007898291481</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.151757487907815</v>
+        <v>0.1189519931576234</v>
       </c>
       <c r="H3" t="n">
-        <v>70.44279719191603</v>
+        <v>33.5980894574028</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5894039106372533</v>
+        <v>-0.6879409537913153</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.215454942225362</v>
+        <v>-11.79788612917265</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.664820011691355</v>
+        <v>-0.627564809514831</v>
       </c>
       <c r="H5" t="n">
-        <v>8.880996864819693</v>
+        <v>-2.779520555373815</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1949573316843213</v>
+        <v>0.1370603655286926</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.78376031246544</v>
+        <v>-44.30880504169735</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3609675607314082</v>
+        <v>0.3488370368176556</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3413991281684</v>
+        <v>112.9366988113364</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07354668053834672</v>
+        <v>0.1119416242393618</v>
       </c>
       <c r="H8" t="n">
-        <v>-55.50955338167743</v>
+        <v>-32.283376746107</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2199300457789388</v>
+        <v>0.227389036905903</v>
       </c>
       <c r="H9" t="n">
-        <v>12.7311413454949</v>
+        <v>16.55445061663369</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09915195987464515</v>
+        <v>-0.1220396634835586</v>
       </c>
       <c r="H10" t="n">
-        <v>73.50533145532904</v>
+        <v>-113.5563663106809</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1049376900259882</v>
+        <v>-0.1243865623968502</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.64505201502672</v>
+        <v>-4.730419050405798</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1762767618603444</v>
+        <v>0.2060282259208529</v>
       </c>
       <c r="H12" t="n">
-        <v>10.8454716250691</v>
+        <v>29.55363843344319</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2465503712838998</v>
+        <v>0.2251849522034897</v>
       </c>
       <c r="H13" t="n">
-        <v>19.88149207163934</v>
+        <v>9.492871260575503</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1828727996501382</v>
+        <v>0.1892185175612739</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.432524193677505</v>
+        <v>-0.08161601034078958</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2536714900321475</v>
+        <v>0.2511973853183916</v>
       </c>
       <c r="H15" t="n">
-        <v>1.50699910773339</v>
+        <v>0.5169826697811607</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02399024349947318</v>
+        <v>0.03292401232602186</v>
       </c>
       <c r="H16" t="n">
-        <v>-34.23771618429802</v>
+        <v>-9.748384046911989</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06191905455263068</v>
+        <v>0.05410248177144972</v>
       </c>
       <c r="H17" t="n">
-        <v>74.5644898185401</v>
+        <v>52.52771859302774</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09822504139550675</v>
+        <v>0.0850246139402005</v>
       </c>
       <c r="H18" t="n">
-        <v>-43.3254585334848</v>
+        <v>-50.94192947167575</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1793929330675016</v>
+        <v>0.1779039450263613</v>
       </c>
       <c r="H19" t="n">
-        <v>42.6550564696646</v>
+        <v>41.47099827149915</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07218269549107842</v>
+        <v>0.09123014398003387</v>
       </c>
       <c r="H20" t="n">
-        <v>-37.04192252775422</v>
+        <v>-20.42865075315715</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1293680085271951</v>
+        <v>0.1729699088839599</v>
       </c>
       <c r="H21" t="n">
-        <v>28.85410493032365</v>
+        <v>72.28280038365934</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05740081810730206</v>
+        <v>0.05795863911377596</v>
       </c>
       <c r="H22" t="n">
-        <v>-39.06309181048852</v>
+        <v>-38.47090708946001</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1089210370160845</v>
+        <v>0.1551288042547354</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3973169849692865</v>
+        <v>42.98905115971322</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.175824545623544</v>
+        <v>-0.1669877398190396</v>
       </c>
       <c r="H24" t="n">
-        <v>41.08362395422245</v>
+        <v>-33.99287002872365</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1815538442567368</v>
+        <v>-0.1517928825179598</v>
       </c>
       <c r="H25" t="n">
-        <v>-18.38592541455299</v>
+        <v>31.76439922780055</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1789199580089839</v>
+        <v>0.2068856818592077</v>
       </c>
       <c r="H26" t="n">
-        <v>12.54114500982849</v>
+        <v>30.13166212237345</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2436410101955782</v>
+        <v>0.2358641137107203</v>
       </c>
       <c r="H27" t="n">
-        <v>21.53711917626407</v>
+        <v>17.65771646757017</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02621985065443563</v>
+        <v>0.008532010211720339</v>
       </c>
       <c r="H28" t="n">
-        <v>226.5053635441074</v>
+        <v>206.2457270506428</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02731793180617974</v>
+        <v>0.03777862236809996</v>
       </c>
       <c r="H29" t="n">
-        <v>77.64881348774433</v>
+        <v>145.6748002195506</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1081400015761023</v>
+        <v>0.1381283694495126</v>
       </c>
       <c r="H2" t="n">
-        <v>-17.71466198968813</v>
+        <v>5.103933820157454</v>
       </c>
       <c r="I2" t="n">
-        <v>16.52007898291481</v>
+        <v>7.699803064729886</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1189519931576234</v>
+        <v>0.1481841094432054</v>
       </c>
       <c r="H3" t="n">
-        <v>33.5980894574028</v>
+        <v>66.42944253423097</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6879409537913153</v>
+        <v>-0.5920754159267158</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.79788612917265</v>
+        <v>3.7813062809212</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.627564809514831</v>
+        <v>-0.6406194812127495</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.779520555373815</v>
+        <v>-4.91755136554174</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1370603655286926</v>
+        <v>0.1794184707456276</v>
       </c>
       <c r="H6" t="n">
-        <v>-44.30880504169735</v>
+        <v>-27.09760407487379</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3488370368176556</v>
+        <v>0.3173572464737374</v>
       </c>
       <c r="H7" t="n">
-        <v>112.9366988113364</v>
+        <v>93.72084175596636</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1119416242393618</v>
+        <v>0.1566954572801168</v>
       </c>
       <c r="H8" t="n">
-        <v>-32.283376746107</v>
+        <v>-5.210529878098106</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.227389036905903</v>
+        <v>0.2129221450538215</v>
       </c>
       <c r="H9" t="n">
-        <v>16.55445061663369</v>
+        <v>9.139050758779593</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1220396634835586</v>
+        <v>-0.08114545527317552</v>
       </c>
       <c r="H10" t="n">
-        <v>-113.5563663106809</v>
+        <v>-41.9958731130052</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1243865623968502</v>
+        <v>-0.09564825617167652</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.730419050405798</v>
+        <v>19.46652630900338</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2060282259208529</v>
+        <v>0.2077853665129633</v>
       </c>
       <c r="H12" t="n">
-        <v>29.55363843344319</v>
+        <v>30.65855479104192</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2251849522034897</v>
+        <v>0.2455796267029775</v>
       </c>
       <c r="H13" t="n">
-        <v>9.492871260575503</v>
+        <v>19.40948179570502</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1892185175612739</v>
+        <v>0.1678040005007476</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.08161601034078958</v>
+        <v>-11.38972668673843</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2511973853183916</v>
+        <v>0.2428813392719517</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5169826697811607</v>
+        <v>-2.810694707400112</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03292401232602186</v>
+        <v>0.05413024478009123</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.748384046911989</v>
+        <v>48.38234219339835</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05410248177144972</v>
+        <v>0.02303128585570636</v>
       </c>
       <c r="H17" t="n">
-        <v>52.52771859302774</v>
+        <v>-35.06934667665193</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0850246139402005</v>
+        <v>0.05181027417346977</v>
       </c>
       <c r="H18" t="n">
-        <v>-50.94192947167575</v>
+        <v>-70.10616141954455</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1779039450263613</v>
+        <v>0.1426487826520407</v>
       </c>
       <c r="H19" t="n">
-        <v>41.47099827149915</v>
+        <v>13.4357401743283</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09123014398003387</v>
+        <v>0.1309168858009779</v>
       </c>
       <c r="H20" t="n">
-        <v>-20.42865075315715</v>
+        <v>14.18630715587288</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1729699088839599</v>
+        <v>0.1229992669726499</v>
       </c>
       <c r="H21" t="n">
-        <v>72.28280038365934</v>
+        <v>22.51066266908664</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05795863911377596</v>
+        <v>0.05975216194118629</v>
       </c>
       <c r="H22" t="n">
-        <v>-38.47090708946001</v>
+        <v>-36.56689701654795</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1551288042547354</v>
+        <v>0.08451691517183725</v>
       </c>
       <c r="H23" t="n">
-        <v>42.98905115971322</v>
+        <v>-22.09703694020399</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1669877398190396</v>
+        <v>-0.1766180650056217</v>
       </c>
       <c r="H24" t="n">
-        <v>-33.99287002872365</v>
+        <v>-41.72035297123431</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1517928825179598</v>
+        <v>-0.1523574155980028</v>
       </c>
       <c r="H25" t="n">
-        <v>31.76439922780055</v>
+        <v>31.51062412824701</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2068856818592077</v>
+        <v>0.1897404442158593</v>
       </c>
       <c r="H26" t="n">
-        <v>30.13166212237345</v>
+        <v>19.3472605535381</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2358641137107203</v>
+        <v>0.2098866037425231</v>
       </c>
       <c r="H27" t="n">
-        <v>17.65771646757017</v>
+        <v>4.699176678341075</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008532010211720339</v>
+        <v>-0.01039839157509783</v>
       </c>
       <c r="H28" t="n">
-        <v>206.2457270506428</v>
+        <v>-29.48703126678351</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03777862236809996</v>
+        <v>0.03725690099284405</v>
       </c>
       <c r="H29" t="n">
-        <v>145.6748002195506</v>
+        <v>142.2820403304422</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>